--- a/src/templates/食谱配置-导入模板.xlsx
+++ b/src/templates/食谱配置-导入模板.xlsx
@@ -14,17 +14,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="53">
   <si>
     <t>名称</t>
   </si>
   <si>
+    <t>名称（英文）</t>
+  </si>
+  <si>
     <t>图片</t>
   </si>
   <si>
     <t>描述</t>
   </si>
   <si>
+    <t>描述（英文）</t>
+  </si>
+  <si>
     <t>用时（min）</t>
   </si>
   <si>
@@ -46,6 +52,9 @@
     <t>食材</t>
   </si>
   <si>
+    <t>食材（英文）</t>
+  </si>
+  <si>
     <t>食材量</t>
   </si>
   <si>
@@ -53,6 +62,9 @@
   </si>
   <si>
     <t>步骤</t>
+  </si>
+  <si>
+    <t>步骤（英文）</t>
   </si>
   <si>
     <t>蒸排骨</t>
@@ -169,9 +181,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -199,44 +211,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,21 +317,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -273,25 +324,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,36 +341,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,187 +355,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,6 +546,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -594,8 +617,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,19 +641,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,10 +652,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -652,16 +664,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -670,119 +682,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -791,10 +803,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1114,45 +1123,46 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.2222222222222" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="10.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="97.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="29.6666666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5555555555556" customWidth="1"/>
-    <col min="5" max="5" width="8.44444444444444" customWidth="1"/>
-    <col min="6" max="6" width="11.2222222222222" customWidth="1"/>
-    <col min="7" max="7" width="10.2222222222222" customWidth="1"/>
-    <col min="8" max="9" width="14.1111111111111" customWidth="1"/>
-    <col min="10" max="10" width="15.2222222222222" customWidth="1"/>
-    <col min="11" max="11" width="7.66666666666667" customWidth="1"/>
-    <col min="12" max="12" width="9.66666666666667" customWidth="1"/>
-    <col min="13" max="13" width="34.5555555555556" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="15.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="13.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="97.6666666666667" customWidth="1"/>
+    <col min="4" max="5" width="29.6666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5555555555556" customWidth="1"/>
+    <col min="7" max="7" width="8.44444444444444" customWidth="1"/>
+    <col min="8" max="8" width="11.2222222222222" customWidth="1"/>
+    <col min="9" max="9" width="10.2222222222222" customWidth="1"/>
+    <col min="10" max="11" width="14.1111111111111" customWidth="1"/>
+    <col min="12" max="13" width="15.2222222222222" customWidth="1"/>
+    <col min="14" max="14" width="7.66666666666667" customWidth="1"/>
+    <col min="15" max="15" width="9.66666666666667" customWidth="1"/>
+    <col min="16" max="17" width="34.5555555555556" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="15.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -1176,224 +1186,302 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" ht="55.2" spans="1:13">
+    <row r="2" ht="55.2" spans="1:17">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2">
         <v>60</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
       <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2">
+        <v>300</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" ht="55.2" spans="10:17">
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3">
+        <v>10</v>
+      </c>
+      <c r="O3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" ht="69" spans="10:17">
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" ht="41.4" spans="10:17">
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" ht="27.6" spans="10:17">
+      <c r="J6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" ht="69" spans="1:17">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2">
+      <c r="D7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7">
+        <v>120</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7">
         <v>300</v>
       </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>22</v>
+      <c r="O7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="3" ht="55.2" spans="8:13">
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s">
+    <row r="8" ht="55.2" spans="10:17">
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8">
+        <v>10</v>
+      </c>
+      <c r="O8" t="s">
         <v>25</v>
       </c>
-      <c r="K3">
+      <c r="P8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" ht="55.2" spans="10:17">
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9">
         <v>10</v>
       </c>
-      <c r="L3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>26</v>
+      <c r="O9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="4" ht="69" spans="8:13">
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>31</v>
+    <row r="10" ht="55.2" spans="10:17">
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="5" ht="41.4" spans="8:13">
-      <c r="H5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>34</v>
+    <row r="11" ht="69" spans="16:17">
+      <c r="P11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="6" ht="27.6" spans="8:13">
-      <c r="H6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>37</v>
+    <row r="12" ht="96.6" spans="16:17">
+      <c r="P12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="7" ht="69" spans="1:13">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7">
-        <v>120</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7">
-        <v>300</v>
-      </c>
-      <c r="L7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" ht="55.2" spans="8:13">
-      <c r="H8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8">
-        <v>10</v>
-      </c>
-      <c r="L8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" ht="55.2" spans="8:13">
-      <c r="H9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9">
-        <v>10</v>
-      </c>
-      <c r="L9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" ht="55.2" spans="8:13">
-      <c r="H10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" t="s">
-        <v>36</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" ht="69" spans="13:13">
-      <c r="M11" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" ht="96.6" spans="13:13">
-      <c r="M12" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" ht="96.6" spans="13:13">
-      <c r="M13" s="1" t="s">
-        <v>48</v>
+    <row r="13" ht="96.6" spans="16:17">
+      <c r="P13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://mova-cook.oss-cn-shanghai.aliyuncs.com/third-party-server/avatar/auto_upload/20250423091352791.png"/>
-    <hyperlink ref="B7" r:id="rId1" display="http://mova-cook.oss-cn-shanghai.aliyuncs.com/third-party-server/avatar/auto_upload/20250423091352791.png" tooltip="http://mova-cook.oss-cn-shanghai.aliyuncs.com/third-party-server/avatar/auto_upload/20250423091352791.png"/>
+    <hyperlink ref="C2" r:id="rId1" display="http://mova-cook.oss-cn-shanghai.aliyuncs.com/third-party-server/avatar/auto_upload/20250423091352791.png"/>
+    <hyperlink ref="C7" r:id="rId1" display="http://mova-cook.oss-cn-shanghai.aliyuncs.com/third-party-server/avatar/auto_upload/20250423091352791.png" tooltip="http://mova-cook.oss-cn-shanghai.aliyuncs.com/third-party-server/avatar/auto_upload/20250423091352791.png"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/src/templates/食谱配置-导入模板.xlsx
+++ b/src/templates/食谱配置-导入模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
   <si>
     <t>名称</t>
   </si>
@@ -76,6 +76,9 @@
     <t>蒸排骨是一道美味可口、营养丰富的家常菜肴</t>
   </si>
   <si>
+    <t>简单</t>
+  </si>
+  <si>
     <t>软糯顺滑</t>
   </si>
   <si>
@@ -146,6 +149,9 @@
   </si>
   <si>
     <t>绿豆糕是一种传统特色糕点，属于消暑小食</t>
+  </si>
+  <si>
+    <t>普通</t>
   </si>
   <si>
     <t>细腻</t>
@@ -180,9 +186,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -217,52 +223,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -280,19 +240,81 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -300,9 +322,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,23 +338,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,19 +367,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,157 +517,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,6 +552,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -575,26 +590,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,16 +629,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -652,10 +658,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -664,16 +670,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -682,13 +688,19 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -697,100 +709,94 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1126,9 +1132,9 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.2222222222222" defaultRowHeight="13.8"/>
@@ -1221,264 +1227,269 @@
       <c r="F2">
         <v>60</v>
       </c>
-      <c r="G2">
-        <v>1</v>
+      <c r="G2" t="s">
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2">
         <v>300</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" ht="55.2" spans="10:17">
       <c r="J3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N3">
         <v>10</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" ht="69" spans="10:17">
       <c r="J4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N4">
         <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" ht="41.4" spans="10:17">
       <c r="J5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" ht="27.6" spans="10:17">
       <c r="J6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" ht="69" spans="1:17">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7">
         <v>120</v>
       </c>
-      <c r="G7">
-        <v>2</v>
+      <c r="G7" t="s">
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N7">
         <v>300</v>
       </c>
       <c r="O7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" ht="55.2" spans="10:17">
       <c r="J8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N8">
         <v>10</v>
       </c>
       <c r="O8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" ht="55.2" spans="10:17">
       <c r="J9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N9">
         <v>10</v>
       </c>
       <c r="O9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" ht="55.2" spans="10:17">
       <c r="J10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" ht="69" spans="16:17">
       <c r="P11" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" ht="96.6" spans="16:17">
       <c r="P12" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" ht="96.6" spans="16:17">
       <c r="P13" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+      <formula1>"简单,普通,困难"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="http://mova-cook.oss-cn-shanghai.aliyuncs.com/third-party-server/avatar/auto_upload/20250423091352791.png"/>
     <hyperlink ref="C7" r:id="rId1" display="http://mova-cook.oss-cn-shanghai.aliyuncs.com/third-party-server/avatar/auto_upload/20250423091352791.png" tooltip="http://mova-cook.oss-cn-shanghai.aliyuncs.com/third-party-server/avatar/auto_upload/20250423091352791.png"/>
